--- a/ReserveIO/Test.xlsx
+++ b/ReserveIO/Test.xlsx
@@ -46,19 +46,7 @@
     <x:t>Delete</x:t>
   </x:si>
   <x:si>
-    <x:t>Lessor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lessee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>App_Owner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Owner</x:t>
+    <x:t>string</x:t>
   </x:si>
   <x:si>
     <x:t>RoomId</x:t>
@@ -71,30 +59,6 @@
   </x:si>
   <x:si>
     <x:t>OnOff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UserId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oleg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nikita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eugene</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -511,10 +475,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="2">
-        <x:v>45435.4027780324</x:v>
+        <x:v>45436.4877109143</x:v>
       </x:c>
       <x:c r="D2" s="0">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -525,10 +489,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="4">
-        <x:v>45435.4027780324</x:v>
+        <x:v>45436.4877109143</x:v>
       </x:c>
       <x:c r="D3" s="3">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -564,7 +528,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C12"/>
+  <x:dimension ref="A1:C7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -589,116 +553,61 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="3">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="3" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="3">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="3" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="0" t="b">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="3">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="3" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="0">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="3">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="0">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="3">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -724,16 +633,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -741,7 +650,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="b">
         <x:v>1</x:v>
@@ -755,7 +664,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="3" t="b">
         <x:v>1</x:v>
@@ -769,7 +678,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="b">
         <x:v>1</x:v>
@@ -783,7 +692,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="3" t="b">
         <x:v>1</x:v>
@@ -863,181 +772,12 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D12"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C2" s="0">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="3">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C3" s="3">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C4" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="A5" s="3">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C5" s="3">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C6" s="0">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="A7" s="3">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C7" s="3">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C8" s="0">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="A9" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C9" s="3">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C10" s="0">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="A11" s="3">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C11" s="3">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="b">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="A12" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C12" s="0">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/ReserveIO/Test.xlsx
+++ b/ReserveIO/Test.xlsx
@@ -6,16 +6,16 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="CostHour" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Role" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Room" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Service" sheetId="5" r:id="rId5"/>
-    <x:sheet name="ServiceInfo" sheetId="6" r:id="rId6"/>
+    <x:sheet name="CostHours" sheetId="2" r:id="rId2"/>
+    <x:sheet name="UserRooms" sheetId="3" r:id="rId3"/>
+    <x:sheet name="ServiceInfos" sheetId="4" r:id="rId4"/>
+    <x:sheet name="UserLogPasses" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Rooms" sheetId="6" r:id="rId6"/>
     <x:sheet name="SummaryTables" sheetId="7" r:id="rId7"/>
-    <x:sheet name="User" sheetId="8" r:id="rId8"/>
-    <x:sheet name="UserLogPass" sheetId="9" r:id="rId9"/>
-    <x:sheet name="UserRole" sheetId="10" r:id="rId10"/>
-    <x:sheet name="UserRoom" sheetId="11" r:id="rId11"/>
+    <x:sheet name="Services" sheetId="8" r:id="rId8"/>
+    <x:sheet name="UserRoles" sheetId="9" r:id="rId9"/>
+    <x:sheet name="Roles" sheetId="10" r:id="rId10"/>
+    <x:sheet name="Users" sheetId="11" r:id="rId11"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -25,40 +25,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.Int32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Int32 get_CostId()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_CostId(Int32)</x:t>
+  </x:si>
+  <x:si>
     <x:t>CostId</x:t>
   </x:si>
   <x:si>
+    <x:t>ReserveIO.Models.CostHour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReserveIO.dll</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.Reflection.CustomAttributeData[]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Int32 get_CostRoomId()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_CostRoomId(Int32)</x:t>
+  </x:si>
+  <x:si>
     <x:t>CostRoomId</x:t>
   </x:si>
   <x:si>
+    <x:t>System.DateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.DateTime get_TimeStampTZ()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_TimeStampTZ(System.DateTime)</x:t>
+  </x:si>
+  <x:si>
     <x:t>TimeStampTZ</x:t>
   </x:si>
   <x:si>
+    <x:t>Int32 get_Cost()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_Cost(Int32)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Cost</x:t>
   </x:si>
   <x:si>
+    <x:t>Int32 get_RoomId()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_RoomId(Int32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RoomId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReserveIO.Models.Room</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.String get_RoomName()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_RoomName(System.String)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RoomName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.Boolean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boolean get_OnOff()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_OnOff(Boolean)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OnOff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boolean get_ServiceOn()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_ServiceOn(Boolean)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ServiceOn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Int32 get_RoleId()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_RoleId(Int32)</x:t>
+  </x:si>
+  <x:si>
     <x:t>RoleId</x:t>
   </x:si>
   <x:si>
+    <x:t>ReserveIO.Models.Role</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.String get_RoleName()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_RoleName(System.String)</x:t>
+  </x:si>
+  <x:si>
     <x:t>RoleName</x:t>
   </x:si>
   <x:si>
+    <x:t>Boolean get_Delete()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Void set_Delete(Boolean)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RoomId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RoomName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ServiceOn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OnOff</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -77,22 +173,12 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="4">
+  <x:fills count="2">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFE4C4"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF5D8AA8"/>
-      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -114,41 +200,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -447,52 +505,198 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D3"/>
+  <x:dimension ref="A1:O4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
+    <x:row r="1" spans="1:15">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
+      <x:c r="D1" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O1" s="0">
+        <x:v>385876010</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="0">
+    <x:row r="2" spans="1:15">
+      <x:c r="A2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="2">
-        <x:v>45436.4877109143</x:v>
-      </x:c>
-      <x:c r="D2" s="0">
-        <x:v>0</x:v>
+      <x:c r="D2" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O2" s="0">
+        <x:v>385876011</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="3">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="3">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3" s="4">
-        <x:v>45436.4877109143</x:v>
-      </x:c>
-      <x:c r="D3" s="3">
-        <x:v>0</x:v>
+    <x:row r="3" spans="1:15">
+      <x:c r="A3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O3" s="0">
+        <x:v>385876012</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:15">
+      <x:c r="A4" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O4" s="0">
+        <x:v>385876013</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -528,90 +732,12 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C7"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="3">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="3" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="3">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="3">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -625,83 +751,12 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D5"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="3">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="3" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="A5" s="3">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -734,12 +789,201 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:O4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:15">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O1" s="0">
+        <x:v>385876017</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:15">
+      <x:c r="A2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O2" s="0">
+        <x:v>385876018</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:15">
+      <x:c r="A3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O3" s="0">
+        <x:v>385876019</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:15">
+      <x:c r="A4" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O4" s="0">
+        <x:v>385876020</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -810,12 +1054,154 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:O3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:15">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N1" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O1" s="0">
+        <x:v>385876014</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:15">
+      <x:c r="A2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O2" s="0">
+        <x:v>385876015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:15">
+      <x:c r="A3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O3" s="0">
+        <x:v>385876016</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
